--- a/data/trans_orig/CLASESOCIAL_Hogar_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CLASESOCIAL_Hogar_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6D66451-98EE-4676-955B-71914EAE6878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DED241-61F5-495B-BF35-0664B4384DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62CB7BDE-0E21-49B7-B942-7504333041F8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D6AD1467-F144-4700-87F1-5FA5BF365E08}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="687">
   <si>
     <t>Clase social del hogar, recodificación en grupos en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -1649,463 +1649,457 @@
     <t>Clase social del hogar, recodificación en grupos en 2023 (Tasa respuesta: 97,92%)</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
   </si>
   <si>
     <t>34,82%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC7C733-52CB-4363-8C17-359F67C79839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67658B4B-0286-4257-B33B-8A9DDF6B1D5A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3880,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A99C93-D96E-49FB-843F-0EBF3884E83C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD12586-9166-41F5-BE66-DD2A9A8DEA04}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5243,7 +5237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E35266D-2757-4229-8A1C-6B8BEFEC3555}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCDB5E9-24CE-4209-AC9C-1FE64A426F06}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5774,7 +5768,7 @@
         <v>338</v>
       </c>
       <c r="D12" s="7">
-        <v>359665</v>
+        <v>359664</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>430</v>
@@ -5927,7 +5921,7 @@
         <v>1948</v>
       </c>
       <c r="D15" s="7">
-        <v>2070810</v>
+        <v>2070809</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -6288,7 +6282,7 @@
         <v>862</v>
       </c>
       <c r="D22" s="7">
-        <v>900756</v>
+        <v>900755</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>495</v>
@@ -6339,7 +6333,7 @@
         <v>1099</v>
       </c>
       <c r="D23" s="7">
-        <v>1145326</v>
+        <v>1145325</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>504</v>
@@ -6543,7 +6537,7 @@
         <v>3208</v>
       </c>
       <c r="D27" s="7">
-        <v>3368990</v>
+        <v>3368989</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6606,7 +6600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DA7527-82CB-49F0-898C-E4A3ED904916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E262E97-3532-4C56-95E0-14CFA9FEAB59}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6727,46 +6721,46 @@
         <v>224</v>
       </c>
       <c r="D4" s="7">
-        <v>172538</v>
+        <v>162734</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>536</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H4" s="7">
         <v>618</v>
       </c>
       <c r="I4" s="7">
-        <v>364617</v>
+        <v>328139</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M4" s="7">
         <v>842</v>
       </c>
       <c r="N4" s="7">
-        <v>537156</v>
+        <v>490873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,22 +6772,22 @@
         <v>325</v>
       </c>
       <c r="D5" s="7">
-        <v>257322</v>
+        <v>246077</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>546</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>504</v>
       </c>
       <c r="I5" s="7">
-        <v>285920</v>
+        <v>260608</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>547</v>
@@ -6808,7 +6802,7 @@
         <v>829</v>
       </c>
       <c r="N5" s="7">
-        <v>543241</v>
+        <v>506685</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>550</v>
@@ -6829,46 +6823,46 @@
         <v>96</v>
       </c>
       <c r="D6" s="7">
-        <v>75420</v>
+        <v>71961</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>553</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>124</v>
+        <v>554</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>554</v>
+        <v>388</v>
       </c>
       <c r="H6" s="7">
         <v>178</v>
       </c>
       <c r="I6" s="7">
-        <v>106087</v>
+        <v>95447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>555</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>444</v>
+        <v>556</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M6" s="7">
         <v>274</v>
       </c>
       <c r="N6" s="7">
-        <v>181507</v>
+        <v>167408</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>224</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,46 +6874,46 @@
         <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>18295</v>
+        <v>17083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>34515</v>
+        <v>31218</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>475</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M7" s="7">
         <v>79</v>
       </c>
       <c r="N7" s="7">
-        <v>52810</v>
+        <v>48301</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>567</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,46 +6925,46 @@
         <v>16</v>
       </c>
       <c r="D8" s="7">
-        <v>11191</v>
+        <v>10702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>566</v>
+        <v>56</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>29954</v>
+        <v>26370</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>572</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M8" s="7">
         <v>62</v>
       </c>
       <c r="N8" s="7">
-        <v>41145</v>
+        <v>37072</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>574</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,7 +6976,7 @@
         <v>684</v>
       </c>
       <c r="D9" s="7">
-        <v>534766</v>
+        <v>508557</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -6997,7 +6991,7 @@
         <v>1402</v>
       </c>
       <c r="I9" s="7">
-        <v>821093</v>
+        <v>741782</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -7012,7 +7006,7 @@
         <v>2086</v>
       </c>
       <c r="N9" s="7">
-        <v>1355859</v>
+        <v>1250339</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -7035,46 +7029,46 @@
         <v>306</v>
       </c>
       <c r="D10" s="7">
-        <v>316082</v>
+        <v>310126</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="H10" s="7">
         <v>682</v>
       </c>
       <c r="I10" s="7">
-        <v>492126</v>
+        <v>529163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="M10" s="7">
         <v>988</v>
       </c>
       <c r="N10" s="7">
-        <v>808208</v>
+        <v>839290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,46 +7080,46 @@
         <v>771</v>
       </c>
       <c r="D11" s="7">
-        <v>835644</v>
+        <v>812140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>583</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>1128</v>
       </c>
       <c r="I11" s="7">
-        <v>830740</v>
+        <v>764352</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M11" s="7">
         <v>1899</v>
       </c>
       <c r="N11" s="7">
-        <v>1666384</v>
+        <v>1576492</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,46 +7131,46 @@
         <v>390</v>
       </c>
       <c r="D12" s="7">
-        <v>450523</v>
+        <v>629331</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H12" s="7">
         <v>359</v>
       </c>
       <c r="I12" s="7">
-        <v>254324</v>
+        <v>231011</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>593</v>
+        <v>524</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="M12" s="7">
         <v>749</v>
       </c>
       <c r="N12" s="7">
-        <v>704847</v>
+        <v>860341</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,46 +7182,46 @@
         <v>343</v>
       </c>
       <c r="D13" s="7">
-        <v>356158</v>
+        <v>338576</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>599</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>603</v>
       </c>
       <c r="H13" s="7">
         <v>462</v>
       </c>
       <c r="I13" s="7">
-        <v>445964</v>
+        <v>508383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="M13" s="7">
         <v>805</v>
       </c>
       <c r="N13" s="7">
-        <v>802122</v>
+        <v>846959</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>153</v>
+        <v>460</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,46 +7233,46 @@
         <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>181894</v>
+        <v>178970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>606</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>610</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
       </c>
       <c r="I14" s="7">
-        <v>179298</v>
+        <v>162448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>608</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M14" s="7">
         <v>388</v>
       </c>
       <c r="N14" s="7">
-        <v>361193</v>
+        <v>341418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7290,7 +7284,7 @@
         <v>1967</v>
       </c>
       <c r="D15" s="7">
-        <v>2140302</v>
+        <v>2269143</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -7305,7 +7299,7 @@
         <v>2862</v>
       </c>
       <c r="I15" s="7">
-        <v>2202452</v>
+        <v>2195357</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -7320,7 +7314,7 @@
         <v>4829</v>
       </c>
       <c r="N15" s="7">
-        <v>4342754</v>
+        <v>4464500</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -7343,46 +7337,46 @@
         <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>20767</v>
+        <v>20564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>613</v>
+        <v>57</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>617</v>
       </c>
       <c r="H16" s="7">
         <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>22586</v>
+        <v>20830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>616</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M16" s="7">
         <v>54</v>
       </c>
       <c r="N16" s="7">
-        <v>43353</v>
+        <v>41394</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>571</v>
+        <v>621</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,46 +7388,46 @@
         <v>57</v>
       </c>
       <c r="D17" s="7">
-        <v>52957</v>
+        <v>55173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>441</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>101</v>
       </c>
       <c r="I17" s="7">
-        <v>69484</v>
+        <v>64749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>621</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>625</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M17" s="7">
         <v>158</v>
       </c>
       <c r="N17" s="7">
-        <v>122441</v>
+        <v>119922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>625</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,46 +7439,46 @@
         <v>31</v>
       </c>
       <c r="D18" s="7">
-        <v>31435</v>
+        <v>29057</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>627</v>
+        <v>280</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
       </c>
       <c r="I18" s="7">
-        <v>27187</v>
+        <v>24498</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
       </c>
       <c r="N18" s="7">
-        <v>58621</v>
+        <v>53554</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>632</v>
+        <v>227</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7496,43 +7490,43 @@
         <v>130</v>
       </c>
       <c r="D19" s="7">
-        <v>139448</v>
+        <v>134538</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>635</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H19" s="7">
         <v>219</v>
       </c>
       <c r="I19" s="7">
-        <v>155468</v>
+        <v>144889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>315</v>
+        <v>639</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M19" s="7">
         <v>349</v>
       </c>
       <c r="N19" s="7">
-        <v>294916</v>
+        <v>279426</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>639</v>
+        <v>508</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>640</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>641</v>
@@ -7547,7 +7541,7 @@
         <v>419</v>
       </c>
       <c r="D20" s="7">
-        <v>409780</v>
+        <v>389962</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>642</v>
@@ -7562,7 +7556,7 @@
         <v>587</v>
       </c>
       <c r="I20" s="7">
-        <v>422938</v>
+        <v>390691</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>645</v>
@@ -7577,7 +7571,7 @@
         <v>1006</v>
       </c>
       <c r="N20" s="7">
-        <v>832719</v>
+        <v>780652</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>648</v>
@@ -7598,7 +7592,7 @@
         <v>656</v>
       </c>
       <c r="D21" s="7">
-        <v>654386</v>
+        <v>629293</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -7613,7 +7607,7 @@
         <v>975</v>
       </c>
       <c r="I21" s="7">
-        <v>697663</v>
+        <v>645656</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -7628,7 +7622,7 @@
         <v>1631</v>
       </c>
       <c r="N21" s="7">
-        <v>1352049</v>
+        <v>1274949</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -7651,46 +7645,46 @@
         <v>549</v>
       </c>
       <c r="D22" s="7">
-        <v>509387</v>
+        <v>493424</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>651</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H22" s="7">
         <v>1335</v>
       </c>
       <c r="I22" s="7">
-        <v>879329</v>
+        <v>878132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>653</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>638</v>
+        <v>655</v>
       </c>
       <c r="M22" s="7">
         <v>1884</v>
       </c>
       <c r="N22" s="7">
-        <v>1388716</v>
+        <v>1371556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>656</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>654</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7702,46 +7696,46 @@
         <v>1153</v>
       </c>
       <c r="D23" s="7">
-        <v>1145922</v>
+        <v>1113390</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>657</v>
+        <v>589</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H23" s="7">
         <v>1733</v>
       </c>
       <c r="I23" s="7">
-        <v>1186144</v>
+        <v>1089710</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>343</v>
+        <v>661</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>660</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>2886</v>
       </c>
       <c r="N23" s="7">
-        <v>2332066</v>
+        <v>2203100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,13 +7747,13 @@
         <v>517</v>
       </c>
       <c r="D24" s="7">
-        <v>557378</v>
+        <v>730348</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>665</v>
+        <v>91</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>666</v>
@@ -7768,31 +7762,31 @@
         <v>570</v>
       </c>
       <c r="I24" s="7">
-        <v>387598</v>
+        <v>350955</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>667</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>519</v>
+        <v>668</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M24" s="7">
         <v>1087</v>
       </c>
       <c r="N24" s="7">
-        <v>944976</v>
+        <v>1081304</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7804,13 +7798,13 @@
         <v>496</v>
       </c>
       <c r="D25" s="7">
-        <v>513901</v>
+        <v>490197</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>673</v>
+        <v>194</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>674</v>
@@ -7819,31 +7813,31 @@
         <v>737</v>
       </c>
       <c r="I25" s="7">
-        <v>635947</v>
+        <v>684490</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>675</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>677</v>
       </c>
       <c r="M25" s="7">
         <v>1233</v>
       </c>
       <c r="N25" s="7">
-        <v>1149848</v>
+        <v>1174687</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7855,46 +7849,46 @@
         <v>592</v>
       </c>
       <c r="D26" s="7">
-        <v>602866</v>
+        <v>579634</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>864</v>
       </c>
       <c r="I26" s="7">
-        <v>632191</v>
+        <v>579509</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>683</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>685</v>
       </c>
       <c r="M26" s="7">
         <v>1456</v>
       </c>
       <c r="N26" s="7">
-        <v>1235056</v>
+        <v>1159142</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7900,7 @@
         <v>3307</v>
       </c>
       <c r="D27" s="7">
-        <v>3329454</v>
+        <v>3406993</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -7921,7 +7915,7 @@
         <v>5239</v>
       </c>
       <c r="I27" s="7">
-        <v>3721208</v>
+        <v>3582795</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -7936,7 +7930,7 @@
         <v>8546</v>
       </c>
       <c r="N27" s="7">
-        <v>7050662</v>
+        <v>6989789</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
